--- a/results/mp/logistic/corona/confidence/84/stop-words-desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,79 +40,94 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -121,9 +136,15 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -133,27 +154,33 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -163,184 +190,178 @@
     <t>support</t>
   </si>
   <si>
-    <t>special</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>please</t>
+    <t>boost</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>god</t>
+    <t>web</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>kind</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>increase</t>
   </si>
   <si>
     <t>security</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>energy</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -706,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,13 +788,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -809,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -817,13 +838,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>0.9473684210526315</v>
@@ -867,13 +888,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -885,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>0.9444444444444444</v>
@@ -917,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8013698630136986</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C6">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D6">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -935,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>0.9393939393939394</v>
@@ -967,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.9333333333333333</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1017,37 +1038,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7826086956521739</v>
+        <v>0.76</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1059,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1067,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1085,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L9">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7666666666666667</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1135,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.9112271540469974</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1159,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1167,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7567567567567568</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1188,16 +1209,16 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.9017857142857143</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L11">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="M11">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1209,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1217,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7307692307692307</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1235,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.8962264150943396</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>348</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>348</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1259,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1267,13 +1288,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6764705882352942</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1285,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1309,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1317,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6137566137566137</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1335,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1359,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1367,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6086956521739131</v>
+        <v>0.65</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1385,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>0.8873239436619719</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1409,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1417,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.576271186440678</v>
+        <v>0.64</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1435,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.8846153846153846</v>
+        <v>0.86875</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1459,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1467,13 +1488,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5686274509803921</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1485,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.8828125</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1509,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1517,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1535,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K18">
-        <v>0.875</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1559,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1567,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5329457364341085</v>
+        <v>0.5523255813953488</v>
       </c>
       <c r="C19">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D19">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1585,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>0.8604651162790697</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1609,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1617,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4838709677419355</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1635,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>0.85625</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L20">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1659,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1667,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.425</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1685,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.8536585365853658</v>
+        <v>0.859375</v>
       </c>
       <c r="L21">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="M21">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1709,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1717,13 +1738,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3221476510067114</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1735,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0.851063829787234</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1759,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1767,13 +1788,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2727272727272727</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1785,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K23">
-        <v>0.8448275862068966</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1809,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1817,13 +1838,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2666666666666667</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1835,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.82</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1859,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1867,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.25</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1885,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.8181818181818182</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1909,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1917,7 +1938,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2363636363636364</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -1935,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.8095238095238095</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1959,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1967,13 +1988,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1818181818181818</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1985,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K27">
-        <v>0.7894736842105263</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2009,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2017,13 +2038,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1547619047619048</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2035,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2059,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2067,13 +2088,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1099195710455764</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2085,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>332</v>
+        <v>100</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K29">
-        <v>0.7411764705882353</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L29">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2109,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2117,37 +2138,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01068999028182702</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E30">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>3054</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.7407407407407407</v>
+        <v>0.775</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2159,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2167,37 +2188,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.007988721804511278</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E31">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>2111</v>
+        <v>42</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K31">
-        <v>0.7291666666666666</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2209,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2217,213 +2238,381 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00505369551484523</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>77</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="L32">
+        <v>37</v>
+      </c>
+      <c r="M32">
+        <v>37</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>217</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33">
+        <v>0.75</v>
+      </c>
+      <c r="L33">
+        <v>18</v>
+      </c>
+      <c r="M33">
+        <v>18</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.08042895442359249</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>343</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L34">
         <v>16</v>
       </c>
-      <c r="D32">
-        <v>51</v>
-      </c>
-      <c r="E32">
+      <c r="M34">
+        <v>16</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>283</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35">
+        <v>0.7264705882352941</v>
+      </c>
+      <c r="L35">
+        <v>247</v>
+      </c>
+      <c r="M35">
+        <v>247</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.01490602721970188</v>
+      </c>
+      <c r="C36">
+        <v>46</v>
+      </c>
+      <c r="D36">
+        <v>67</v>
+      </c>
+      <c r="E36">
+        <v>0.31</v>
+      </c>
+      <c r="F36">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F32">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>3150</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L32">
-        <v>16</v>
-      </c>
-      <c r="M32">
-        <v>16</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33">
-        <v>0.725</v>
-      </c>
-      <c r="L33">
-        <v>29</v>
-      </c>
-      <c r="M33">
-        <v>29</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L34">
-        <v>25</v>
-      </c>
-      <c r="M34">
-        <v>25</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35">
-        <v>0.7050847457627119</v>
-      </c>
-      <c r="L35">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3040</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L36">
+        <v>17</v>
+      </c>
+      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.01471861471861472</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>23</v>
+      </c>
+      <c r="E37">
+        <v>0.26</v>
+      </c>
+      <c r="F37">
+        <v>0.74</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1138</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L37">
+        <v>17</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.01083883129123468</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>0.48</v>
+      </c>
+      <c r="F38">
+        <v>0.52</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2099</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38">
+        <v>0.7040816326530612</v>
+      </c>
+      <c r="L38">
+        <v>207</v>
+      </c>
+      <c r="M38">
         <v>208</v>
       </c>
-      <c r="M35">
-        <v>208</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K36">
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.005395112662646779</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>67</v>
+      </c>
+      <c r="E39">
+        <v>0.75</v>
+      </c>
+      <c r="F39">
+        <v>0.25</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>3134</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39">
         <v>0.7037037037037037</v>
-      </c>
-      <c r="L36">
-        <v>19</v>
-      </c>
-      <c r="M36">
-        <v>19</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37">
-        <v>0.7016806722689075</v>
-      </c>
-      <c r="L37">
-        <v>167</v>
-      </c>
-      <c r="M37">
-        <v>168</v>
-      </c>
-      <c r="N37">
-        <v>0.99</v>
-      </c>
-      <c r="O37">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38">
-        <v>0.6862745098039216</v>
-      </c>
-      <c r="L38">
-        <v>35</v>
-      </c>
-      <c r="M38">
-        <v>35</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K39">
-        <v>0.6785714285714286</v>
       </c>
       <c r="L39">
         <v>19</v>
@@ -2441,177 +2630,177 @@
         <v>0</v>
       </c>
       <c r="Q39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40">
+        <v>0.702928870292887</v>
+      </c>
+      <c r="L40">
+        <v>168</v>
+      </c>
+      <c r="M40">
+        <v>168</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40">
-        <v>0.6702127659574468</v>
-      </c>
-      <c r="L40">
-        <v>63</v>
-      </c>
-      <c r="M40">
-        <v>63</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42">
+        <v>0.6714285714285714</v>
+      </c>
+      <c r="L42">
+        <v>47</v>
+      </c>
+      <c r="M42">
+        <v>47</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K43">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L43">
+        <v>18</v>
+      </c>
+      <c r="M43">
+        <v>18</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K44">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L44">
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <v>15</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45">
+        <v>0.651685393258427</v>
+      </c>
+      <c r="L45">
+        <v>58</v>
+      </c>
+      <c r="M45">
+        <v>58</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L41">
-        <v>22</v>
-      </c>
-      <c r="M41">
-        <v>22</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L42">
-        <v>17</v>
-      </c>
-      <c r="M42">
-        <v>17</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43">
-        <v>0.6521739130434783</v>
-      </c>
-      <c r="L43">
-        <v>15</v>
-      </c>
-      <c r="M43">
-        <v>15</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K44">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L44">
-        <v>18</v>
-      </c>
-      <c r="M44">
-        <v>18</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K45">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L45">
-        <v>45</v>
-      </c>
-      <c r="M45">
-        <v>45</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
+    <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K46">
-        <v>0.6404494382022472</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L46">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2623,21 +2812,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K47">
-        <v>0.6307692307692307</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L47">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M47">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2649,21 +2838,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K48">
-        <v>0.625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2675,21 +2864,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K49">
-        <v>0.625</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2701,21 +2890,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K50">
-        <v>0.625</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2732,16 +2921,16 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K51">
-        <v>0.6086956521739131</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2753,21 +2942,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K52">
-        <v>0.5769230769230769</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2779,21 +2968,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K53">
-        <v>0.5714285714285714</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2805,21 +2994,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K54">
-        <v>0.5555555555555556</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2831,47 +3020,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K55">
-        <v>0.5121951219512195</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K56">
-        <v>0.5068493150684932</v>
+        <v>0.5</v>
       </c>
       <c r="L56">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2883,21 +3072,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K57">
-        <v>0.4888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2909,21 +3098,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K58">
-        <v>0.4615384615384616</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="L58">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M58">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2935,21 +3124,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K59">
-        <v>0.4193548387096774</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2961,21 +3150,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K60">
-        <v>0.4117647058823529</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2987,21 +3176,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K61">
-        <v>0.4067796610169492</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3013,21 +3202,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K62">
-        <v>0.3859649122807017</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3039,12 +3228,12 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K63">
         <v>0.3278688524590164</v>
@@ -3070,16 +3259,16 @@
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K64">
-        <v>0.25</v>
+        <v>0.325</v>
       </c>
       <c r="L64">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3091,21 +3280,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K65">
-        <v>0.2361111111111111</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3117,73 +3306,73 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K66">
-        <v>0.1370967741935484</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K67">
-        <v>0.1284403669724771</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L67">
         <v>14</v>
       </c>
       <c r="M67">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K68">
-        <v>0.0979020979020979</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3195,21 +3384,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>129</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K69">
-        <v>0.0755813953488372</v>
+        <v>0.0487012987012987</v>
       </c>
       <c r="L69">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3221,163 +3410,163 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>159</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K70">
-        <v>0.04234527687296417</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N70">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>294</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K71">
-        <v>0.02018633540372671</v>
+        <v>0.0244173140954495</v>
       </c>
       <c r="L71">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M71">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N71">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>631</v>
+        <v>879</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K72">
-        <v>0.01557285873192436</v>
+        <v>0.02015677491601344</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M72">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N72">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O72">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K73">
-        <v>0.01098901098901099</v>
+        <v>0.0157035175879397</v>
       </c>
       <c r="L73">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M73">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="N73">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="O73">
-        <v>0.3100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>3150</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>0.007055503292568203</v>
+        <v>0.00990566037735849</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M74">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N74">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="O74">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>2111</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>0.006506180871828237</v>
+        <v>0.006860503103560928</v>
       </c>
       <c r="L75">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M75">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="N75">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="O75">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>3054</v>
+        <v>3040</v>
       </c>
     </row>
   </sheetData>
